--- a/dz1/docs/таблица переходов.xlsx
+++ b/dz1/docs/таблица переходов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13935" windowHeight="12945"/>
+    <workbookView windowWidth="27870" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -109,52 +153,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -166,14 +166,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,6 +192,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -216,15 +216,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -233,7 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,175 +248,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,8 +537,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,15 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -602,21 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -631,153 +622,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,7 +813,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1134,39 +1134,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:L16"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" ht="15.75"/>
-    <row r="5" ht="15.75" spans="2:7">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+    <row r="2" ht="15.75" spans="2:7">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -1175,95 +1234,80 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
+    <row r="7" ht="15.75" spans="2:7">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="10" ht="15.75" spans="2:12">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
+    <row r="11" ht="15.75" spans="2:12">
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
-    <row r="10" ht="15.75" spans="2:7">
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>13</v>
-      </c>
+    <row r="12" ht="15.75" spans="2:12">
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" ht="15.75" spans="2:12">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1276,57 +1320,12 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" ht="15.75" spans="2:12">
-      <c r="B14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" ht="15.75" spans="2:12">
-      <c r="B15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" ht="15.75" spans="2:12">
-      <c r="B16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
